--- a/炼盅日志/7.6.1/日志7.61.xlsx
+++ b/炼盅日志/7.6.1/日志7.61.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\webprc\炼盅日志\7.6.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDFD5D-4639-4771-9EDC-2E9AD87C0D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C344B57F-89CF-4E8D-AA6A-B1CB62D4465C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5637F788-25D4-4E8F-A641-0BA2D619AFAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="229">
   <si>
     <t>name</t>
   </si>
@@ -680,6 +680,186 @@
   </si>
   <si>
     <t>贵族剑气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉球力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪连续拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3回合内【提升物攻】【 提升物防】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续对前方一个敌人造成伤害，此技能拥有暴击率修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体造成巨大伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉碎拳击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏前方一个敌人得护盾并对其造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速刺击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一个敌人造成伤害，此技能优先出招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使前方一片敌人当回合【降低物防】 并造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入【招架】，回合结束时对前方一个敌人造成伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一个敌人造成多段伤害。 自身敏捷越高伤害次数越多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛开治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵气场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一个敌人造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除全体友军的负面状态 并免疫异常状态2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为我方全体提供【物理护盾】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复全体友军生命并【增加物防】3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵的启示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复自身生命 ，全体友军【提高魔攻】【提高物攻】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一个敌人造成3次攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个友军使其与自身交换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体友军【提高速度】3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩可利姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主突击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比恢复自身生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久状态 自身全能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并对前方一名敌人造成大量伤害。伤害与自身剩余生命成正比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬劈斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一名角色造成伤害，若命中则恢复1点技能值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6855,10 +7035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD83A3B-6243-4EBA-BD5A-3E0F9E5148A2}">
-  <dimension ref="B2:P32"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7859,10 +8039,74 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="1">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1">
+        <v>88</v>
+      </c>
+      <c r="F35" s="2">
+        <v>47</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="6">
+        <v>60</v>
+      </c>
+      <c r="D36" s="6">
+        <v>42</v>
+      </c>
+      <c r="E36" s="6">
+        <v>89</v>
+      </c>
+      <c r="F36" s="6">
+        <v>57</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>81</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B32"/>
+  <mergeCells count="17">
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="B22:B24"/>
@@ -7872,11 +8116,14 @@
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="J18:J20"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7886,10 +8133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AAFAE5-34A4-4C74-8B0F-8BC2B8097607}">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:P14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7898,7 +8145,7 @@
     <col min="2" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>112</v>
       </c>
@@ -7925,8 +8172,21 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="13"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7941,8 +8201,15 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R3" s="9"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="12" t="s">
         <v>113</v>
@@ -7965,8 +8232,19 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R4" s="9"/>
+      <c r="S4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7981,8 +8259,15 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R5" s="9"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="15" t="s">
         <v>118</v>
@@ -8005,8 +8290,19 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R6" s="9"/>
+      <c r="S6" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="15"/>
       <c r="D7" s="12"/>
@@ -8021,8 +8317,15 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="9"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
         <v>116</v>
@@ -8045,8 +8348,19 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="9"/>
+      <c r="S8" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="14"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -8061,8 +8375,15 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="10"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>119</v>
       </c>
@@ -8089,8 +8410,21 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8105,8 +8439,15 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="9"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="s">
         <v>159</v>
@@ -8129,8 +8470,19 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R13" s="9"/>
+      <c r="S13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -8145,8 +8497,15 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="9"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="14"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="15" t="s">
         <v>157</v>
@@ -8169,8 +8528,19 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="9"/>
+      <c r="S15" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="14"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="15"/>
       <c r="D16" s="12"/>
@@ -8185,8 +8555,15 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R16" s="9"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="14"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="12" t="s">
         <v>158</v>
@@ -8209,8 +8586,19 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="9"/>
+      <c r="S17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="14"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8225,8 +8613,15 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="10"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="20" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
@@ -8253,8 +8648,21 @@
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -8269,8 +8677,15 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="9"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="14"/>
+    </row>
+    <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="12" t="s">
         <v>161</v>
@@ -8293,8 +8708,19 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="9"/>
+      <c r="S22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="14"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -8309,8 +8735,15 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="9"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="14"/>
+    </row>
+    <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="15" t="s">
         <v>163</v>
@@ -8333,8 +8766,19 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="9"/>
+      <c r="S24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="14"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="15"/>
       <c r="D25" s="12"/>
@@ -8349,8 +8793,15 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R25" s="9"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="14"/>
+    </row>
+    <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="12" t="s">
         <v>162</v>
@@ -8373,8 +8824,19 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="9"/>
+      <c r="S26" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="14"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8389,8 +8851,15 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="10"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="17"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>126</v>
       </c>
@@ -8417,8 +8886,21 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -8433,8 +8915,15 @@
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R30" s="9"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="14"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
         <v>164</v>
@@ -8457,8 +8946,19 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R31" s="9"/>
+      <c r="S31" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="14"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -8473,8 +8973,15 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="9"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="14"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="15" t="s">
         <v>165</v>
@@ -8497,8 +9004,19 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="9"/>
+      <c r="S33" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="C34" s="15"/>
       <c r="D34" s="12"/>
@@ -8513,8 +9031,15 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="14"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R34" s="9"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="12" t="s">
         <v>166</v>
@@ -8537,8 +9062,19 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="14"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="9"/>
+      <c r="S35" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="14"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -8553,9 +9089,142 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="17"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="17"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="9"/>
+      <c r="C40" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="9"/>
+      <c r="C42" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+      <c r="C44" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="10"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="117">
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:H39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:H41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:H45"/>
+    <mergeCell ref="R20:R27"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:X21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:X23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:X25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:X27"/>
+    <mergeCell ref="R11:R18"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:X12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:X16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:X18"/>
+    <mergeCell ref="R2:R9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:X3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:X5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:X9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:H3"/>
@@ -8628,6 +9297,15 @@
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:P36"/>
     <mergeCell ref="K33:K34"/>
+    <mergeCell ref="R29:R36"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:X30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:X32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:X34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:X36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/炼盅日志/7.6.1/日志7.61.xlsx
+++ b/炼盅日志/7.6.1/日志7.61.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\webprc\炼盅日志\7.6.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C344B57F-89CF-4E8D-AA6A-B1CB62D4465C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14968E-4BFF-4B43-96FF-246C4291975F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5637F788-25D4-4E8F-A641-0BA2D619AFAE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="247">
   <si>
     <t>name</t>
   </si>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【减速】前方所有敌人3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,10 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复全体友军生命并【增加物防】3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极光绽放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,10 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复自身生命 ，全体友军【提高魔攻】【提高物攻】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三连击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,10 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全体友军【提高速度】3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佩可利姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,6 +844,94 @@
   </si>
   <si>
     <t>对前方一名角色造成伤害，若命中则恢复1点技能值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭意已决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕树藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽翼光辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵的弓术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身获得【提高闪避】【提高速度】3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久状态 行动前自身进行充能，行动顺序越前充能量越高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方一名敌人造成伤害，战斗内使用次数越多威力越高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个角色造成伤害并【降低闪避】1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体友军【提高速度】4回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复自身生命 ，全体友军【提高魔攻】【提高物攻】4回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复全体友军生命并【增加物防】4回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方所有敌人【降低速度】4回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓冲因子的探求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认知与发展的哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪杰生成概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体友军【提高命中】【提高暴击率】【提高50%暴击伤害】4回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕学的教诲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体【充能恢复】3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为我方场地提供【魔法伤害减免】3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名友军【提高物攻】【提高魔攻】3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7038,7 +7110,7 @@
   <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8041,7 +8113,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>89</v>
@@ -8107,6 +8179,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="J30:J32"/>
     <mergeCell ref="B22:B24"/>
@@ -8116,14 +8196,6 @@
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="J18:J20"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8136,7 +8208,7 @@
   <dimension ref="B2:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:H30"/>
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8153,33 +8225,33 @@
         <v>117</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="13"/>
       <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="13"/>
       <c r="R2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
@@ -8215,7 +8287,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -8223,10 +8295,10 @@
       <c r="H4" s="14"/>
       <c r="J4" s="9"/>
       <c r="K4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -8234,10 +8306,10 @@
       <c r="P4" s="14"/>
       <c r="R4" s="9"/>
       <c r="S4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -8281,10 +8353,10 @@
       <c r="H6" s="14"/>
       <c r="J6" s="9"/>
       <c r="K6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -8292,10 +8364,10 @@
       <c r="P6" s="14"/>
       <c r="R6" s="9"/>
       <c r="S6" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
@@ -8339,10 +8411,10 @@
       <c r="H8" s="14"/>
       <c r="J8" s="9"/>
       <c r="K8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -8350,10 +8422,10 @@
       <c r="P8" s="14"/>
       <c r="R8" s="9"/>
       <c r="S8" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -8388,23 +8460,23 @@
         <v>119</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
       <c r="J11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -8414,10 +8486,10 @@
         <v>88</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
@@ -8450,10 +8522,10 @@
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -8461,10 +8533,10 @@
       <c r="H13" s="14"/>
       <c r="J13" s="9"/>
       <c r="K13" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -8472,10 +8544,10 @@
       <c r="P13" s="14"/>
       <c r="R13" s="9"/>
       <c r="S13" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -8508,7 +8580,7 @@
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>120</v>
@@ -8519,10 +8591,10 @@
       <c r="H15" s="14"/>
       <c r="J15" s="9"/>
       <c r="K15" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -8530,10 +8602,10 @@
       <c r="P15" s="14"/>
       <c r="R15" s="9"/>
       <c r="S15" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
@@ -8566,7 +8638,7 @@
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>121</v>
@@ -8577,10 +8649,10 @@
       <c r="H17" s="14"/>
       <c r="J17" s="9"/>
       <c r="K17" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -8588,10 +8660,10 @@
       <c r="P17" s="14"/>
       <c r="R17" s="9"/>
       <c r="S17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
@@ -8626,7 +8698,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>123</v>
@@ -8636,26 +8708,26 @@
       <c r="G20" s="11"/>
       <c r="H20" s="13"/>
       <c r="J20" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="13"/>
       <c r="R20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="T20" s="11" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
@@ -8688,7 +8760,7 @@
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>124</v>
@@ -8699,10 +8771,10 @@
       <c r="H22" s="14"/>
       <c r="J22" s="9"/>
       <c r="K22" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -8710,10 +8782,10 @@
       <c r="P22" s="14"/>
       <c r="R22" s="9"/>
       <c r="S22" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -8746,10 +8818,10 @@
     <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -8757,10 +8829,10 @@
       <c r="H24" s="14"/>
       <c r="J24" s="9"/>
       <c r="K24" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -8768,10 +8840,10 @@
       <c r="P24" s="14"/>
       <c r="R24" s="9"/>
       <c r="S24" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
@@ -8804,10 +8876,10 @@
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -8815,10 +8887,10 @@
       <c r="H26" s="14"/>
       <c r="J26" s="9"/>
       <c r="K26" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -8826,10 +8898,10 @@
       <c r="P26" s="14"/>
       <c r="R26" s="9"/>
       <c r="S26" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
@@ -8861,39 +8933,39 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="13"/>
       <c r="J29" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="13"/>
       <c r="R29" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
@@ -8926,10 +8998,10 @@
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -8937,10 +9009,10 @@
       <c r="H31" s="14"/>
       <c r="J31" s="9"/>
       <c r="K31" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -8948,10 +9020,10 @@
       <c r="P31" s="14"/>
       <c r="R31" s="9"/>
       <c r="S31" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
@@ -8984,10 +9056,10 @@
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -8995,10 +9067,10 @@
       <c r="H33" s="14"/>
       <c r="J33" s="9"/>
       <c r="K33" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -9006,10 +9078,10 @@
       <c r="P33" s="14"/>
       <c r="R33" s="9"/>
       <c r="S33" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
@@ -9042,10 +9114,10 @@
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -9053,10 +9125,10 @@
       <c r="H35" s="14"/>
       <c r="J35" s="9"/>
       <c r="K35" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -9064,10 +9136,10 @@
       <c r="P35" s="14"/>
       <c r="R35" s="9"/>
       <c r="S35" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
@@ -9099,18 +9171,44 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="13"/>
+      <c r="J38" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="13"/>
+      <c r="R38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="13"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
@@ -9120,19 +9218,55 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="14"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="14"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="14"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="14"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="14"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="14"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
@@ -9142,19 +9276,55 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="14"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="14"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="14"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="14"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="14"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="14"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
@@ -9164,19 +9334,55 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="14"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="14"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="14"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="14"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="14"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="14"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
@@ -9186,9 +9392,149 @@
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="135">
+    <mergeCell ref="R38:R45"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:X39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:X41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:X43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:X45"/>
+    <mergeCell ref="J38:J45"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:P41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:P43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:P45"/>
+    <mergeCell ref="R29:R36"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:X30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:X32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:X34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:X36"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:P30"/>
+    <mergeCell ref="L31:P32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L33:P34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:P36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J20:J27"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:P23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:P27"/>
+    <mergeCell ref="J11:J18"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:P14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:P16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:P18"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:P3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:P7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:H32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:H36"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="R2:R9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:X3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:X5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:X9"/>
+    <mergeCell ref="R11:R18"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:X12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:X16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:X18"/>
+    <mergeCell ref="R20:R27"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:X21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:X23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:X25"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:X27"/>
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:H39"/>
@@ -9198,114 +9544,6 @@
     <mergeCell ref="D42:H43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D44:H45"/>
-    <mergeCell ref="R20:R27"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:X21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:X23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:X25"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:X27"/>
-    <mergeCell ref="R11:R18"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:X12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:X16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:X18"/>
-    <mergeCell ref="R2:R9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:X3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:X5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:X9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:H32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:H36"/>
-    <mergeCell ref="J2:J9"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:P3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:P7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="J11:J18"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:P14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:P16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:P18"/>
-    <mergeCell ref="J20:J27"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:P23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:P27"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:P30"/>
-    <mergeCell ref="L31:P32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L33:P34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:P36"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="R29:R36"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:X30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:X32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:X34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:X36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
